--- a/templates/rr_schedules/rr_crossover_B8.xlsx
+++ b/templates/rr_schedules/rr_crossover_B8.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/rr_schedules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/templates/rr_schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D175373-CCD8-A147-899C-1F2EDADB8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0ECE31-42BF-554C-BFA8-0EA575F5DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1140" windowWidth="30780" windowHeight="19420" xr2:uid="{9E58356C-D73F-FC43-AA9C-FFAB6CC6AEB1}"/>
+    <workbookView xWindow="1160" yWindow="1140" windowWidth="30780" windowHeight="19420" activeTab="1" xr2:uid="{9E58356C-D73F-FC43-AA9C-FFAB6CC6AEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,12 +33,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>round 1</t>
+  </si>
+  <si>
+    <t>round 2</t>
+  </si>
+  <si>
+    <t>round 3</t>
+  </si>
+  <si>
+    <t>round 4</t>
+  </si>
+  <si>
+    <t>round 5</t>
+  </si>
+  <si>
+    <t>round 6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -59,6 +79,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ArialMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -408,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55A6BF-84DD-D44D-B32A-3A6F889734B0}">
   <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="A11:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -662,4 +687,194 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA795628-2DC5-3A40-AFB3-E08B75BBA498}">
+  <dimension ref="A2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:9" ht="24">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>